--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Python\Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9C9E6-F9A5-40F5-899D-F5160B98E35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428CDFFA-270D-4A69-931B-F458BF731369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>abc@xyz.com</t>
+  </si>
+  <si>
+    <t>Tismet</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,13 +448,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{77E33B71-DDDD-41A5-B3D1-B5A94AB83E11}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{8953B81D-00AC-4B3D-8F66-67E58FC62499}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6591780C-AB59-4F4E-A3FB-89B48098CD67}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{62CF1865-24E6-48BE-83B7-5E091E6196E8}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B8D79BCF-87C1-4EB9-B5A3-A1DF008F1362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>